--- a/supplemental_materials/supplemental_file_5.xlsx
+++ b/supplemental_materials/supplemental_file_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max_Schubert/Dropbox/RLR_e.coli_dropbox/rlr_git/supplemental_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D35BD6EF-2FB4-F643-B118-2911484DFA51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2CB13E-820B-A04F-AE00-1F9947825B1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="14000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>window</t>
   </si>
@@ -1158,9 +1158,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875619F0-D79F-174C-8AD1-FE4B0F9509C8}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1549,6 +1551,184 @@
         <v>8</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>67500</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>68000</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>68500</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>69000</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>69500</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>70000</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>361000</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>364500</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>365000</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>365500</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>3581000</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>4093500</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4094000</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4094500</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4095000</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4640500</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4641000</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4641500</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>4642000</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
